--- a/myTeamSchedulereports.xlsx
+++ b/myTeamSchedulereports.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="97">
   <si>
     <t>Name</t>
   </si>
@@ -32,36 +32,249 @@
     <t>Status</t>
   </si>
   <si>
-    <t>fjfuf</t>
+    <t>fdsfdsfsdg</t>
+  </si>
+  <si>
+    <t>J001</t>
+  </si>
+  <si>
+    <t>2022-05-01 16:15:00.0</t>
+  </si>
+  <si>
+    <t>Jyoti Pawar</t>
+  </si>
+  <si>
+    <t>Naukri</t>
+  </si>
+  <si>
+    <t>SCHEDULED</t>
+  </si>
+  <si>
+    <t>fdsfdsfsdgbv</t>
+  </si>
+  <si>
+    <t>fdsfdsfsdgbvvxccxv</t>
+  </si>
+  <si>
+    <t>2022-05-01 14:15:00.0</t>
+  </si>
+  <si>
+    <t>fdsfdsfsdgbvvxccxvcc</t>
+  </si>
+  <si>
+    <t>kkkkkkk</t>
   </si>
   <si>
     <t>JOB001</t>
   </si>
   <si>
-    <t>2022-04-30 09:00:47.0</t>
+    <t>2022-05-01 11:06:00.0</t>
+  </si>
+  <si>
+    <t>RE-SCHEDULED</t>
+  </si>
+  <si>
+    <t>aaaaaaaa</t>
+  </si>
+  <si>
+    <t>2022-05-01 10:15:00.0</t>
+  </si>
+  <si>
+    <t>Kritika gowda</t>
+  </si>
+  <si>
+    <t>Seema</t>
+  </si>
+  <si>
+    <t>2022-05-01 07:51:00.0</t>
+  </si>
+  <si>
+    <t>reena</t>
+  </si>
+  <si>
+    <t>2022-05-01 07:48:00.0</t>
+  </si>
+  <si>
+    <t>Indeed</t>
+  </si>
+  <si>
+    <t>pppp</t>
+  </si>
+  <si>
+    <t>2022-05-01 07:00:00.0</t>
   </si>
   <si>
     <t>Prakash Molagi</t>
   </si>
   <si>
+    <t>Suresh</t>
+  </si>
+  <si>
+    <t>2022-04-30 12:33:00.0</t>
+  </si>
+  <si>
+    <t>Poonam</t>
+  </si>
+  <si>
+    <t>2022-04-30 09:19:00.0</t>
+  </si>
+  <si>
+    <t>ggggggggggg</t>
+  </si>
+  <si>
+    <t>JOB003</t>
+  </si>
+  <si>
+    <t>2022-04-30 09:02:02.0</t>
+  </si>
+  <si>
     <t>Hirist</t>
   </si>
   <si>
-    <t>SCHEDULED</t>
+    <t>Sandhya</t>
+  </si>
+  <si>
+    <t>2022-04-30 09:00:00.0</t>
+  </si>
+  <si>
+    <t>pppppp</t>
+  </si>
+  <si>
+    <t>2022-04-30 08:45:00.0</t>
+  </si>
+  <si>
+    <t>Hema</t>
+  </si>
+  <si>
+    <t>2022-04-30 07:45:00.0</t>
+  </si>
+  <si>
+    <t>Shradha</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2022-04-30 06:46:12.0</t>
+  </si>
+  <si>
+    <t>neha</t>
+  </si>
+  <si>
+    <t>2022-04-30 06:36:34.0</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>fdsfdsfsd</t>
+  </si>
+  <si>
+    <t>2022-04-29 13:30:00.0</t>
+  </si>
+  <si>
+    <t>2022-04-29 13:20:00.0</t>
+  </si>
+  <si>
+    <t>vvgggvvvvvvvvvv</t>
+  </si>
+  <si>
+    <t>2022-04-29 13:13:14.0</t>
+  </si>
+  <si>
+    <t>riya</t>
+  </si>
+  <si>
+    <t>2022-04-29 12:10:40.0</t>
+  </si>
+  <si>
+    <t>vgghbbgg</t>
+  </si>
+  <si>
+    <t>2022-04-29 11:37:45.0</t>
+  </si>
+  <si>
+    <t>cgvccvc</t>
+  </si>
+  <si>
+    <t>2022-04-29 11:31:40.0</t>
+  </si>
+  <si>
+    <t>Heena</t>
+  </si>
+  <si>
+    <t>2022-04-29 11:31:33.0</t>
+  </si>
+  <si>
+    <t>vvgvvvvvvv</t>
+  </si>
+  <si>
+    <t>2022-04-29 11:12:26.0</t>
+  </si>
+  <si>
+    <t>bhhvgggh</t>
+  </si>
+  <si>
+    <t>2022-04-29 11:02:05.0</t>
+  </si>
+  <si>
+    <t>bvgghhggh</t>
+  </si>
+  <si>
+    <t>2022-04-29 11:01:32.0</t>
+  </si>
+  <si>
+    <t>vvvvvgvvvvvgv</t>
+  </si>
+  <si>
+    <t>2022-04-29 10:38:44.0</t>
+  </si>
+  <si>
+    <t>hhhhh</t>
+  </si>
+  <si>
+    <t>2022-04-29 10:02:36.0</t>
+  </si>
+  <si>
+    <t>2022-04-29 09:15:00.0</t>
+  </si>
+  <si>
+    <t>xzcxzc</t>
+  </si>
+  <si>
+    <t>2022-04-29 08:33:02.0</t>
+  </si>
+  <si>
+    <t>zcxxzcxzc</t>
+  </si>
+  <si>
+    <t>2022-04-29 08:30:50.0</t>
+  </si>
+  <si>
+    <t>Monika</t>
+  </si>
+  <si>
+    <t>2022-04-29 08:06:42.0</t>
+  </si>
+  <si>
+    <t>sowmya</t>
+  </si>
+  <si>
+    <t>2022-04-29 07:15:00.0</t>
+  </si>
+  <si>
+    <t>sailakshmiprasad</t>
+  </si>
+  <si>
+    <t>2022-04-28 12:15:00.0</t>
   </si>
   <si>
     <t>Sunita</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>2022-04-28 06:32:17.0</t>
   </si>
   <si>
-    <t>LinkedIn</t>
-  </si>
-  <si>
     <t>ppppppp</t>
   </si>
   <si>
@@ -71,27 +284,15 @@
     <t>gfvvvvvv</t>
   </si>
   <si>
-    <t>J001</t>
-  </si>
-  <si>
     <t>2022-04-27 17:05:38.0</t>
   </si>
   <si>
-    <t>Indeed</t>
-  </si>
-  <si>
     <t>sai</t>
   </si>
   <si>
-    <t>JOB003</t>
-  </si>
-  <si>
     <t>2022-04-27 12:45:00.0</t>
   </si>
   <si>
-    <t>Jyoti Pawar</t>
-  </si>
-  <si>
     <t>monika</t>
   </si>
   <si>
@@ -102,9 +303,6 @@
   </si>
   <si>
     <t>2022-04-26 13:00:00.0</t>
-  </si>
-  <si>
-    <t>Naukri</t>
   </si>
 </sst>
 </file>
@@ -149,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -200,16 +398,16 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -217,19 +415,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -237,19 +435,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -257,19 +455,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -277,41 +475,741 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
         <v>30</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
         <v>11</v>
       </c>
     </row>

--- a/myTeamSchedulereports.xlsx
+++ b/myTeamSchedulereports.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Job code</t>
   </si>
   <si>
-    <t>job Title</t>
+    <t>Job Title</t>
   </si>
   <si>
     <t>Date &amp; Time</t>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>JOB003</t>
+  </si>
+  <si>
+    <t>Java Developer</t>
   </si>
   <si>
     <t>2022-04-30 20:55:00.0</t>
@@ -143,39 +146,43 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2"/>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3"/>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/myTeamSchedulereports.xlsx
+++ b/myTeamSchedulereports.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -35,19 +35,31 @@
     <t>Status</t>
   </si>
   <si>
+    <t>prakasg</t>
+  </si>
+  <si>
+    <t>JOB003</t>
+  </si>
+  <si>
+    <t>Java Developer</t>
+  </si>
+  <si>
+    <t>2022-04-30 20:49:54</t>
+  </si>
+  <si>
+    <t>Prakash Molagi</t>
+  </si>
+  <si>
+    <t>Insta Hyre</t>
+  </si>
+  <si>
+    <t>SCHEDULED</t>
+  </si>
+  <si>
     <t>tttttt</t>
   </si>
   <si>
-    <t>JOB003</t>
-  </si>
-  <si>
-    <t>Java Developer</t>
-  </si>
-  <si>
-    <t>2022-04-30 20:55:00.0</t>
-  </si>
-  <si>
-    <t>Prakash Molagi</t>
+    <t>2022-05-01 02:25:00</t>
   </si>
   <si>
     <t>Hirist</t>
@@ -56,16 +68,70 @@
     <t>RE-SCHEDULED</t>
   </si>
   <si>
-    <t>prakasg</t>
-  </si>
-  <si>
-    <t>2022-04-30 15:19:54.0</t>
-  </si>
-  <si>
-    <t>Insta Hyre</t>
-  </si>
-  <si>
-    <t>SCHEDULED</t>
+    <t>cvggvvv</t>
+  </si>
+  <si>
+    <t>JOB001</t>
+  </si>
+  <si>
+    <t>Angular Developer</t>
+  </si>
+  <si>
+    <t>2022-05-01 15:08:00</t>
+  </si>
+  <si>
+    <t>Kritikas gowdas</t>
+  </si>
+  <si>
+    <t>Indeed</t>
+  </si>
+  <si>
+    <t>vvvvvvvvvcc</t>
+  </si>
+  <si>
+    <t>J001</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>2022-05-01 21:22:00</t>
+  </si>
+  <si>
+    <t>Jyoti Pawar</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>fgvfggg</t>
+  </si>
+  <si>
+    <t>2022-05-02 11:59:00</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>cxzcxczx</t>
+  </si>
+  <si>
+    <t>2022-05-02 14:16:26</t>
+  </si>
+  <si>
+    <t>Naukri</t>
+  </si>
+  <si>
+    <t>gffggffg</t>
+  </si>
+  <si>
+    <t>2022-05-02 20:49:00</t>
+  </si>
+  <si>
+    <t>ddddddd</t>
+  </si>
+  <si>
+    <t>2022-05-04 09:23:00</t>
   </si>
 </sst>
 </file>
@@ -110,7 +176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -185,6 +251,144 @@
         <v>17</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/myTeamSchedulereports.xlsx
+++ b/myTeamSchedulereports.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -35,6 +35,132 @@
     <t>Status</t>
   </si>
   <si>
+    <t>uuuuuyyuu</t>
+  </si>
+  <si>
+    <t>hzhxhd</t>
+  </si>
+  <si>
+    <t>hshshshhj gjhhh hhhh uuhgyy</t>
+  </si>
+  <si>
+    <t>2022-05-03 22:30:00</t>
+  </si>
+  <si>
+    <t>Jyoti Pawar</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>SCHEDULED</t>
+  </si>
+  <si>
+    <t>zfgsftd</t>
+  </si>
+  <si>
+    <t>JOB5677</t>
+  </si>
+  <si>
+    <t>Android s</t>
+  </si>
+  <si>
+    <t>rrrrrrrrrr</t>
+  </si>
+  <si>
+    <t>JOB001</t>
+  </si>
+  <si>
+    <t>Angular Developer</t>
+  </si>
+  <si>
+    <t>twtwt</t>
+  </si>
+  <si>
+    <t>JOB003</t>
+  </si>
+  <si>
+    <t>Java Developer</t>
+  </si>
+  <si>
+    <t>2022-05-04 03:45:00</t>
+  </si>
+  <si>
+    <t>gsgsgsgs</t>
+  </si>
+  <si>
+    <t>#4567</t>
+  </si>
+  <si>
+    <t>UI/UX Designer</t>
+  </si>
+  <si>
+    <t>hshsh</t>
+  </si>
+  <si>
+    <t>2022-05-04 03:46:00</t>
+  </si>
+  <si>
+    <t>gzfssfr</t>
+  </si>
+  <si>
+    <t>2022-05-04 06:25:00</t>
+  </si>
+  <si>
+    <t>nnnnnn</t>
+  </si>
+  <si>
+    <t>2022-05-04 10:40:00</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>monika</t>
+  </si>
+  <si>
+    <t>2022-05-04 17:37:00</t>
+  </si>
+  <si>
+    <t>CutShort</t>
+  </si>
+  <si>
+    <t>RE-SCHEDULED</t>
+  </si>
+  <si>
+    <t>tgsgsggs</t>
+  </si>
+  <si>
+    <t>2022-05-04 18:00:08</t>
+  </si>
+  <si>
+    <t>cxvcxv</t>
+  </si>
+  <si>
+    <t>2022-05-04 18:58:00</t>
+  </si>
+  <si>
+    <t>Naukri</t>
+  </si>
+  <si>
+    <t>hshshsggghdhdhdh</t>
+  </si>
+  <si>
+    <t>2022-05-04 22:30:00</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>job678</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>2022-05-04 23:45:00</t>
+  </si>
+  <si>
     <t>Ram</t>
   </si>
   <si>
@@ -44,31 +170,10 @@
     <t>Java</t>
   </si>
   <si>
-    <t>2022-05-03 13:45:00</t>
-  </si>
-  <si>
-    <t>Jyoti Pawar</t>
+    <t>2022-05-05 17:49:00</t>
   </si>
   <si>
     <t>LinkedIn</t>
-  </si>
-  <si>
-    <t>SCHEDULED</t>
-  </si>
-  <si>
-    <t>cxvcxv</t>
-  </si>
-  <si>
-    <t>JOB003</t>
-  </si>
-  <si>
-    <t>Java Developer</t>
-  </si>
-  <si>
-    <t>2022-05-03 14:04:46</t>
-  </si>
-  <si>
-    <t>Naukri</t>
   </si>
 </sst>
 </file>
@@ -113,7 +218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -176,16 +281,292 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/myTeamSchedulereports.xlsx
+++ b/myTeamSchedulereports.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -44,7 +44,7 @@
     <t>hshshshhj gjhhh hhhh uuhgyy</t>
   </si>
   <si>
-    <t>2022-05-03 22:30:00</t>
+    <t>2022-05-04 04:00</t>
   </si>
   <si>
     <t>Jyoti Pawar</t>
@@ -74,7 +74,7 @@
     <t>Angular Developer</t>
   </si>
   <si>
-    <t>twtwt</t>
+    <t>gzfssfr</t>
   </si>
   <si>
     <t>JOB003</t>
@@ -83,70 +83,100 @@
     <t>Java Developer</t>
   </si>
   <si>
-    <t>2022-05-04 03:45:00</t>
-  </si>
-  <si>
-    <t>gsgsgsgs</t>
-  </si>
-  <si>
-    <t>#4567</t>
-  </si>
-  <si>
-    <t>UI/UX Designer</t>
+    <t>2022-05-04 11:55</t>
+  </si>
+  <si>
+    <t>Sathish</t>
+  </si>
+  <si>
+    <t>2022-05-04 14:07</t>
+  </si>
+  <si>
+    <t>Naukri</t>
   </si>
   <si>
     <t>hshsh</t>
   </si>
   <si>
-    <t>2022-05-04 03:46:00</t>
-  </si>
-  <si>
-    <t>gzfssfr</t>
-  </si>
-  <si>
-    <t>2022-05-04 06:25:00</t>
+    <t>2022-05-04 14:24</t>
+  </si>
+  <si>
+    <t>RE-SCHEDULED</t>
+  </si>
+  <si>
+    <t>Navaneetha</t>
+  </si>
+  <si>
+    <t>JOB002</t>
+  </si>
+  <si>
+    <t>Android Developer</t>
+  </si>
+  <si>
+    <t>2022-05-04 14:30</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>ANubhav</t>
+  </si>
+  <si>
+    <t>2022-05-04 14:33</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>cvvcvvvvv</t>
+  </si>
+  <si>
+    <t>2022-05-04 14:40</t>
+  </si>
+  <si>
+    <t>vgghhgg</t>
+  </si>
+  <si>
+    <t>2022-05-04 14:42</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>2022-05-04 15:00</t>
   </si>
   <si>
     <t>nnnnnn</t>
   </si>
   <si>
-    <t>2022-05-04 10:40:00</t>
-  </si>
-  <si>
-    <t>Monster</t>
+    <t>2022-05-04 16:10</t>
   </si>
   <si>
     <t>monika</t>
   </si>
   <si>
-    <t>2022-05-04 17:37:00</t>
+    <t>2022-05-04 23:07</t>
   </si>
   <si>
     <t>CutShort</t>
   </si>
   <si>
-    <t>RE-SCHEDULED</t>
-  </si>
-  <si>
     <t>tgsgsggs</t>
   </si>
   <si>
-    <t>2022-05-04 18:00:08</t>
+    <t>2022-05-04 23:30</t>
   </si>
   <si>
     <t>cxvcxv</t>
   </si>
   <si>
-    <t>2022-05-04 18:58:00</t>
-  </si>
-  <si>
-    <t>Naukri</t>
+    <t>2022-05-05 00:28</t>
   </si>
   <si>
     <t>hshshsggghdhdhdh</t>
   </si>
   <si>
-    <t>2022-05-04 22:30:00</t>
+    <t>2022-05-05 04:00</t>
   </si>
   <si>
     <t>new</t>
@@ -158,7 +188,7 @@
     <t>java</t>
   </si>
   <si>
-    <t>2022-05-04 23:45:00</t>
+    <t>2022-05-05 05:15</t>
   </si>
   <si>
     <t>Ram</t>
@@ -170,10 +200,13 @@
     <t>Java</t>
   </si>
   <si>
-    <t>2022-05-05 17:49:00</t>
-  </si>
-  <si>
-    <t>LinkedIn</t>
+    <t>2022-05-05 23:19</t>
+  </si>
+  <si>
+    <t>2022-05-17 13:30</t>
+  </si>
+  <si>
+    <t>Anbu</t>
   </si>
 </sst>
 </file>
@@ -218,7 +251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -344,19 +377,19 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -382,27 +415,27 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -410,68 +443,68 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -479,30 +512,30 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -511,13 +544,13 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -525,25 +558,25 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
         <v>48</v>
       </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>33</v>
-      </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
@@ -551,22 +584,160 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
         <v>50</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
         <v>51</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
         <v>52</v>
       </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
         <v>53</v>
       </c>
-      <c r="G15" t="s">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/myTeamSchedulereports.xlsx
+++ b/myTeamSchedulereports.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -23,9 +23,6 @@
     <t>Job Title</t>
   </si>
   <si>
-    <t>job Id</t>
-  </si>
-  <si>
     <t>Date &amp; Time</t>
   </si>
   <si>
@@ -38,25 +35,88 @@
     <t>Status</t>
   </si>
   <si>
+    <t>monikas</t>
+  </si>
+  <si>
+    <t>JOB001</t>
+  </si>
+  <si>
+    <t>Java Developersss</t>
+  </si>
+  <si>
+    <t>2022-05-12 15:49</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Insta Hyre</t>
+  </si>
+  <si>
+    <t>SCHEDULED</t>
+  </si>
+  <si>
+    <t>ttttttt</t>
+  </si>
+  <si>
+    <t>2022-05-13 13:00</t>
+  </si>
+  <si>
+    <t>tttttt</t>
+  </si>
+  <si>
+    <t>2022-05-13 13:04</t>
+  </si>
+  <si>
+    <t>Hirist</t>
+  </si>
+  <si>
+    <t>hdhdhd</t>
+  </si>
+  <si>
+    <t>2022-05-13 13:27</t>
+  </si>
+  <si>
+    <t>ashok</t>
+  </si>
+  <si>
+    <t>2022-05-13 16:12</t>
+  </si>
+  <si>
+    <t>Ankush</t>
+  </si>
+  <si>
+    <t>2022-05-14 16:03</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>giri</t>
+  </si>
+  <si>
+    <t>2022-05-17 17:52</t>
+  </si>
+  <si>
+    <t>Indeed</t>
+  </si>
+  <si>
+    <t>grtg</t>
+  </si>
+  <si>
+    <t>2022-05-18 16:22</t>
+  </si>
+  <si>
+    <t>gtt</t>
+  </si>
+  <si>
+    <t>2022-05-18 16:23</t>
+  </si>
+  <si>
     <t>sati</t>
   </si>
   <si>
-    <t>JOB001</t>
-  </si>
-  <si>
-    <t>Java Developersss</t>
-  </si>
-  <si>
-    <t>JOBOP_RSo26UJ835</t>
-  </si>
-  <si>
     <t>2022-05-18 17:18</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Monster</t>
   </si>
   <si>
     <t>RE-SCHEDULED</t>
@@ -131,7 +191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -159,112 +219,304 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
